--- a/jd.xlsx
+++ b/jd.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,17 +452,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>100071649152</t>
+          <t>100094231749</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>vivo Y100 12GB+256GB 琉云青 超薄5000mAh电池 6400万OIS光学防抖 44W超快闪充5G快充 拍照手机</t>
+          <t>小米Redmi Turbo 3 第三代骁龙8s 小米澎湃OS 12+256 墨晶 AI功能 红米5G手机</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1799.00</t>
+          <t>1999.00</t>
         </is>
       </c>
     </row>
@@ -474,17 +474,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>100064273640</t>
+          <t>100106235346</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>荣耀畅玩405G手机5200mAh大电池 90Hz高清护眼大屏 6G+128GB 幻夜黑</t>
+          <t>OPPO A1s 超大内存 超大运存 5000mAh四年耐用大电池 闪充 12GB+256GB 暮山紫 5G 长续航 抗摔手机</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>699.00</t>
+          <t>1199.00</t>
         </is>
       </c>
     </row>
@@ -496,17 +496,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>100057133684</t>
+          <t>100104167890</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>小米Note 12R 6+128GB 天空幻境 5000万像素 5g 小米智能手机【现货速发】</t>
+          <t>小米Redmi 13R 4GB+128GB 星岩黑 5000万高清双摄 长待机5G手机【现货速发】</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1199.00</t>
+          <t>999.00</t>
         </is>
       </c>
     </row>
@@ -540,17 +540,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>100071580808</t>
+          <t>100081598036</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>小米（MI）Redmi Note 12 Turbo 5G 第二代骁龙7+ 超细四窄边OLED直屏 6400万像素 16GB+256GB冰羽白 红米</t>
+          <t>荣耀X50i+ 一亿像素超清记录 零风险调光OLED护眼屏 20GB(12+8)等效运存 12GB+256GB 云水蓝 5G</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1499.00</t>
+          <t>1250.00</t>
         </is>
       </c>
     </row>
@@ -562,17 +562,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>100062550843</t>
+          <t>100080686409</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>OPPO K11 索尼旗舰主摄 100W闪充 骁龙芯 12GB+256GB 冰川蓝 老人安卓游戏电竞智能学生直屏拍照5G手机</t>
+          <t>荣耀X50 GT 骁龙8+芯片 苍穹散热系统 灵龙触控引擎 5800mAh电池 1.5K抗摔护眼屏 5G 12+256 幻夜黑</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1799.00</t>
+          <t>1878.00</t>
         </is>
       </c>
     </row>
@@ -584,17 +584,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>100077383114</t>
+          <t>100047302022</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>荣耀100 Pro 单反级主摄 荣耀绿洲护眼屏 第二代骁龙8旗舰芯片 AI手机12+256 月影白 5G</t>
+          <t>小米Redmi Note 12 Turbo 第二代骁龙7+ 12GB+512GB冰羽白 SU75G手机</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3289.00</t>
+          <t>1999.00</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>100088850054</t>
+          <t>100096723979</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 Pro (A3104) 128GB 黑色钛金属 支持移动联通电信5G 双卡双待手机</t>
+          <t>中兴ZTE中兴远航41全网通5G智能手机5000毫安 月影灰 4+128GB</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6319.00</t>
+          <t>499.00</t>
         </is>
       </c>
     </row>
@@ -628,17 +628,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>100048276031</t>
+          <t>10094673905451</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>荣耀80 1.6亿像素超清主摄 AI Vlog视频大师 全新Magic OS 7.0系统5G手机12GB+256GB 亮黑色</t>
+          <t>荣耀显通2024新款5G曲面屏全网通智能N10手机大屏畅玩游戏插卡WIFI 大电池长续航快充游戏 碧空蓝 12G+128G</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1599.00</t>
+          <t>1578.00</t>
         </is>
       </c>
     </row>
@@ -650,17 +650,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>100066896356</t>
+          <t>100064273640</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Apple/苹果 iPhone 15 (A3092) 128GB 黑色 支持移动联通电信5G 双卡双待手机</t>
+          <t>荣耀畅玩405G手机5200mAh大电池 90Hz高清护眼大屏 6G+128GB 幻夜黑</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5199.00</t>
+          <t>719.00</t>
         </is>
       </c>
     </row>
@@ -672,17 +672,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>100031192618</t>
+          <t>100105755066</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>OPPO K9x 天玑 810 5000mAh长续航 快充 8GB+128GB 银紫超梦 老人安卓游戏电竞智能学生直屏拍照5G手机</t>
+          <t>realme真我GT Neo6 SE第三代骁龙7+旗舰芯 6000nit无双屏 5500mAh超长续航 AI 5G游戏手机12+256苍野骇客</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1099.00</t>
+          <t>1999.00</t>
         </is>
       </c>
     </row>
@@ -694,17 +694,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>100087534841</t>
+          <t>100031192618</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>vivo Y100t 12GB+256GB 月影黑 120W超快闪充 天玑8200旗舰芯片5000mAh电池5G手机</t>
+          <t>OPPO K9x 天玑 810 5000mAh长续航 快充 8GB+128GB 银紫超梦 老人安卓游戏电竞智能学生直屏拍照5G手机</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1699.00</t>
+          <t>1099.00</t>
         </is>
       </c>
     </row>
@@ -716,17 +716,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>100055559565</t>
+          <t>100071649152</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>荣耀Play7T 6000mAh 长续航 8GB+256GB大内存 6.74英寸高刷护眼屏5G手机8GB+256GB 魅海蓝</t>
+          <t>vivo Y100 12GB+256GB 琉云青 超薄5000mAh电池 6400万OIS光学防抖 44W超快闪充5G快充 拍照手机</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>893.00</t>
+          <t>1799.00</t>
         </is>
       </c>
     </row>
@@ -738,17 +738,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>100106235346</t>
+          <t>100048276031</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>OPPO A1s 超大内存 超大运存 5000mAh四年耐用大电池 闪充 12GB+256GB 暮山紫 5G 长续航 抗摔手机</t>
+          <t>荣耀80 1.6亿像素超清主摄 AI Vlog视频大师 全新Magic OS 7.0系统5G手机12GB+256GB 亮黑色</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1199.00</t>
+          <t>1599.00</t>
         </is>
       </c>
     </row>
@@ -760,17 +760,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>100081598036</t>
+          <t>100094995977</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>荣耀X50i+ 一亿像素超清记录 零风险调光OLED护眼屏 20GB(12+8)等效运存 12GB+256GB 云水蓝 5G</t>
+          <t>OPPO K12 5G 100W闪充 5500mAh超长续航 第三代骁龙7旗舰芯 直屏新款拍照游戏 AI手机8GB+256GB 青云</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1250.00</t>
+          <t>1899.00</t>
         </is>
       </c>
     </row>
@@ -782,17 +782,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>100026667858</t>
+          <t>100068892967</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Apple/苹果 iPhone 13 (A2634) 128GB 粉色 支持移动联通电信5G 双卡双待手机</t>
+          <t>小米Redmi Note13Pro 新2亿像素 第二代1.5K高光屏 8GB+256GB 子夜黑 SU75G手机</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3829.00</t>
+          <t>1499.00</t>
         </is>
       </c>
     </row>
@@ -804,17 +804,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>100105515178</t>
+          <t>100090704317</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华为智选 Hi畅享60s5G手机6000mAh超长续航 鸿蒙生态手机星河蓝 256GB</t>
+          <t>小米（MI）Redmi Note11R5G手机5000mAh长续航 6.58英寸高清大屏4GB+128GB 冰晶银河</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>924.00</t>
+          <t>599.00</t>
         </is>
       </c>
     </row>
@@ -826,17 +826,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>10094673905451</t>
+          <t>100087534841</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>荣耀显通2024新款5G曲面屏全网通智能N10手机大屏畅玩游戏插卡WIFI 大电池长续航快充游戏 碧空蓝 12G+128G</t>
+          <t>vivo Y100t 12GB+256GB 月影黑 120W超快闪充 天玑8200旗舰芯片 5000mAh电池 5G手机</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1578.00</t>
+          <t>1699.00</t>
         </is>
       </c>
     </row>
@@ -848,17 +848,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>100096723979</t>
+          <t>100058934613</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中兴ZTE中兴远航41全网通5G智能手机5000毫安 月影灰 4+128GB</t>
+          <t>小米（MI）Redmi Note 12T Pro 5G 天玑8200-Ultra 真旗舰芯 LCD 旗舰直屏 12GB+256GB 碳纤黑 小米红米</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>499.00</t>
+          <t>1199.00</t>
         </is>
       </c>
     </row>
@@ -870,19 +870,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>100104167890</t>
+          <t>100110956642</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>小米Redmi 13R 4GB+128GB 星岩黑 5000万高清双摄 长待机5G手机【现货速发】</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>999.00</t>
-        </is>
-      </c>
+          <t>realme真我GT Neo6 第三代骁龙8s旗舰芯 6000nit无双屏 120W光速秒充 电竞5G游戏AI手机12+256流银骑士</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -892,17 +888,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>100080686409</t>
+          <t>100057334060</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>荣耀X50 GT 骁龙8+芯片 苍穹散热系统 灵龙触控引擎 5800mAh电池 1.5K抗摔护眼屏 5G 12+256 幻夜黑</t>
+          <t>荣耀X50 第一代骁龙6芯片 1.5K超清护眼硬核曲屏 5800mAh超耐久大电池5G手机8GB+128GB 雨后初晴</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1878.00</t>
+          <t>1399.00</t>
         </is>
       </c>
     </row>
@@ -914,17 +910,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>100105755066</t>
+          <t>100078020148</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>realme真我GT Neo6 SE第三代骁龙7+旗舰芯 6000nit无双屏 5500mAh超长续航 AI 5G游戏手机12+256苍野骇客</t>
+          <t>小米Redmi K70E 天玑8300-Ultra小米澎湃OS 12GB+256GB墨羽 AI功能 红米5G手机</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1999.00</t>
+          <t>1599.00</t>
         </is>
       </c>
     </row>
@@ -936,17 +932,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>100052069595</t>
+          <t>100076141362</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>三星 SAMSUNG Galaxy S23 第二代骁龙8移动平台 120Hz高刷 8GB+256GB 悠雾紫5G手机拍照手机</t>
+          <t>OPPO Reno11 5000万单反级人像三摄 天玑8200 旗舰芯 长续航 8GB+256GB 月光宝石 学生5G拍照 AI手机</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3399.00</t>
+          <t>2299.00</t>
         </is>
       </c>
     </row>
@@ -958,17 +954,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>100092720801</t>
+          <t>100081538612</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>荣耀Magic6 Pro 荣耀鸿燕通信 单反级荣耀鹰眼相机 荣耀巨犀玻璃 16GB+512GB 海湖青5GAI手机</t>
+          <t>荣耀90 GT 第二代骁龙8旗舰芯 超凡帧画引擎 荣耀绿洲护眼屏 5000mAh轻薄长续航 OIS 12+256 星曜黑 5G直屏</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>5999.00</t>
+          <t>2282.00</t>
         </is>
       </c>
     </row>
@@ -980,17 +976,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>100096368819</t>
+          <t>100049486743</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>小米（MI）Redmi Note13 1亿像素5G手机超细四窄边OLED直屏 8GB+128GB星沙白 SU7车机互联</t>
+          <t>小米13 徕卡光学镜头 第二代骁龙8处理器 12+256GB 黑色5G手机澎湃OS SU7小米汽车互联 AI手机</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>982.00</t>
+          <t>2799.00</t>
         </is>
       </c>
     </row>
@@ -1002,17 +998,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>100068388575</t>
+          <t>100067253548</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Apple/苹果 iPhone 15 Pro (A3104) 128GB 白色钛金属 支持移动联通电信5G 双卡双待手机</t>
+          <t>荣耀X40 GT竞速版 骁龙888冷酷旗舰芯 满血66W快充 超大内存5G手机12GB+512GB 竞速银</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>7349.00</t>
+          <t>1569.00</t>
         </is>
       </c>
     </row>
@@ -1024,17 +1020,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>100071816249</t>
+          <t>100077383114</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>荣耀Play8T 6000mAh超能长续航 850nit高亮超清显示 5000万像素超清影像 8GB+256GB 幻夜黑 5G</t>
+          <t>荣耀100 Pro 单反级主摄 荣耀绿洲护眼屏 第二代骁龙8旗舰芯片 AI手机12+256 月影白 5G</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>942.00</t>
+          <t>3289.00</t>
         </is>
       </c>
     </row>
@@ -1046,17 +1042,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>100081933253</t>
+          <t>100066896356</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>荣耀畅玩30M5G手机5000mAh大电量超长续航 6.5英寸大屏 指纹解锁 幻夜黑 6GB+128GB</t>
+          <t>Apple/苹果 iPhone 15 (A3092) 128GB 黑色 支持移动联通电信5G 双卡双待手机</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>654.00</t>
+          <t>5199.00</t>
         </is>
       </c>
     </row>
@@ -1068,17 +1064,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>100101100768</t>
+          <t>100071370063</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>荣耀（HONOR）畅玩405G手机5200mAh大电池 90Hz高清护眼大屏 6G+128GB 碧空蓝</t>
+          <t>魅族（MEIZU）20 Classic 骁龙8Gen2 Flyme系统 144Hz电竞直屏 5G游戏学生拍照 魅族20C 余生白首 16+512GB</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>636.00</t>
+          <t>2299.00</t>
         </is>
       </c>
     </row>
@@ -1090,15 +1086,675 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>100021558437</t>
+          <t>100052069595</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>OPPO K10 冰魄蓝 12GB+256GB 天玑 8000-MAX 金刚石VC液冷散热 120Hz高帧变速屏 旗舰5G手机</t>
+          <t>三星 SAMSUNG Galaxy S23 第二代骁龙8移动平台 120Hz高刷 8GB+256GB 悠雾紫5G手机拍照手机</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
+        <is>
+          <t>3399.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>100045503700</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>vivo iQOO Z7 8GB+256GB 深空黑 120W超快闪充 等效5000mAh强续航 6400万像素 OIS光学防抖5G手机iqooz7</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1068.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>100101100774</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>荣耀（HONOR）荣耀畅玩50 Plus 12GB+256GB超大双存 6000mAh超长续航 双倍大音量立体声 流光银5G手机</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1080.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>100044835937</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>小米（MI）Redmi Note12 5G 120Hz OLED屏幕 骁龙4移动平台 5000mAh长续航 8GB+256GB子夜黑 小米红米</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>999.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>100058687029</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>OPPO K11x 1亿超清影像 超大内存闪充长续航 8GB+256GB 珠光 老人防水骁龙游戏电竞智能学生拍照5G手机</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1399.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>100078549401</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>一加 Ace 3 12GB+256GB 星辰黑 1.5K 东方屏 第二代骁龙 8 旗舰芯片 OPPO AI手机5G超长续航游戏手机</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2599.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>100108721596</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>荣耀Play7T 6000mAh 长续航 8.27mm轻薄机身 6.74英寸高刷护眼屏5G手机8GB+128GB 钛空银</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>777.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>100103544352</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>nubia努比亚 小牛 8GB+256GB 玄采 一亿像素高清主摄 5000mAh大电池 5G拍照中兴手机</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>949.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>100094593977</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>OPPO A1i 5000mAh四年耐用大电池 超大运存 超大储存空间 8GB+256GB 幻影紫 5G 长续航 抗摔手机</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1099.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>10102868221752</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>荣耀手机X50 【24期免息】新品5G新机上市5800mAh超耐久大电池曲面屏10800万像素IP53防水 典雅黑【12GB+256GB】 官方标配全网通</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1559.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>100106914802</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>小米（MI）RedmiTurbo3 第三代骁龙8s 小米澎湃OS 12GB+256GB 青刃 红米5G手机</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1999.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>100077414769</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>vivo iQOO Neo9 12GB+256GB 格斗黑第二代骁龙8旗舰芯自研电竞芯片Q1 IMX920 索尼大底主摄5G电竞手机</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2289.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>100078020148</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>小米Redmi K70E 天玑8300-Ultra小米澎湃OS 12GB+256GB墨羽 AI功能 红米5G手机</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1599.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>100092720801</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>荣耀Magic6 Pro 荣耀鸿燕通信 单反级荣耀鹰眼相机 荣耀巨犀玻璃 16GB+512GB 海湖青 5G AI手机</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5999.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>100091072389</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>一加 Ace 3V 12GB+256GB 幻紫银 高通第三代骁龙 7+ 芯片 超长续航 OPPO AI 5G直屏游戏拍照智能手机</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1999.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>100055559565</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>荣耀Play7T 6000mAh 长续航 8GB+256GB大内存 6.74英寸高刷护眼屏5G手机8GB+256GB 魅海蓝</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>893.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>100074233310</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>摩托罗拉（Motorola） moto g54 5000万光学防抖AI影像 120Hz护眼大屏 双卡双待双5G手机8GB+128GB 蓝朋友</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>949.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>100077626112</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华为智选 Hi畅享60s5G手机256G 幻夜黑 鸿蒙生态手机碎屏保套装</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1059.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>100076141362</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>OPPO Reno115000万单反级人像三摄 天玑8200 旗舰芯 长续航 8GB+256GB 月光宝石 学生5G拍照 AI手机</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2299.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>100057875893</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>vivo iQOO Neo8 12GB+256GB 夜岩 第一代骁龙8+ 自研芯片V1+ 120W超快闪充 144Hz高刷 5G</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1699.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>100093024513</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>一加 Ace 3V 12GB+256GB 幻紫银 高通第三代骁龙 7+ 芯片 5500mAh 超长续航 OPPO AI 5G直屏游戏手机</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1999.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>100096255023</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>荣耀Play7T 6000mAh 长续航 8.27mm轻薄机身 6.74英寸高刷护眼屏5G手机8GB+128GB 幻夜黑</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>787.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>100096255011</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>荣耀Play7T 6000mAh 长续航 8.27mm轻薄机身 6.74英寸高刷护眼屏5G手机8GB+128GB 魅海蓝</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>780.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>100088766898</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中兴（ZTE）天机A31 8GB+128GB曜石黑 6.67英寸大屏 144Hz高刷 6400万高清四摄 55W充电 游戏5G手机</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>799.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>100091072379</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>一加 Ace 3V 12GB+256GB 钛空灰 高通第三代骁龙 7+ 芯片 超长续航 OPPO AI5G直屏游戏拍照智能手机</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1999.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>100100303196</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>小米（MI）Redmi Note 12 Turbo5G手机第二代骁龙7+ 超细四窄边OLED直屏 16GB+1TB碳纤黑 小米红米</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1749.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>100080166119</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>小米Redmi 13C 5G 4GB内存 128GB存储 彩虹星纱 SU7</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>699.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>100058135624</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>OPPO K11 索尼旗舰主摄 100W闪充 骁龙芯 12GB+512GB 冰川蓝 老人安卓游戏电竞智能学生直屏拍照5G手机</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1899.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>100035023561</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中兴（ZTE）远航30S 4GB+128GB 珠光灰 6.52大屏90HZ刷新率 4000mAh长续航5G手机拍照游戏手机</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>499.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>100064988404</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>摩托罗拉 moto g54 5000万光学防抖AI影像 5000mAh大电池 120Hz护眼大屏 双卡双待双5G手机8GB+256GB 蓝朋友</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1099.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>100061826798</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>vivo iQOO Z8 8GB+256GB 月瓷白 天玑 8200 120W超快闪充 5000mAh超长续航5G手机</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>1299.00</t>
         </is>
